--- a/Data_frame/balancos_definitivos/ARCE3.xlsx
+++ b/Data_frame/balancos_definitivos/ARCE3.xlsx
@@ -7002,7 +7002,7 @@
         <v>590598.0159999999</v>
       </c>
       <c r="T57" t="n">
-        <v>2516232.704</v>
+        <v>2516232.96</v>
       </c>
       <c r="U57" t="n">
         <v>631241.024</v>
@@ -7050,7 +7050,7 @@
         <v>4501890.048</v>
       </c>
       <c r="AJ57" t="n">
-        <v>4558894.08</v>
+        <v>4558894.592</v>
       </c>
       <c r="AK57" t="n">
         <v>4409811.968</v>
@@ -7188,7 +7188,7 @@
         <v>171871.008</v>
       </c>
       <c r="H59" t="n">
-        <v>1825235.968</v>
+        <v>1825236.096</v>
       </c>
       <c r="I59" t="n">
         <v>184210</v>
@@ -7248,7 +7248,7 @@
         <v>2111309.056</v>
       </c>
       <c r="AB59" t="n">
-        <v>1915573.248</v>
+        <v>1915573.12</v>
       </c>
       <c r="AC59" t="n">
         <v>1950135.04</v>
@@ -7260,7 +7260,7 @@
         <v>3763414.016</v>
       </c>
       <c r="AF59" t="n">
-        <v>2934637.568</v>
+        <v>2934638.08</v>
       </c>
       <c r="AG59" t="n">
         <v>3286870.016</v>
@@ -7272,7 +7272,7 @@
         <v>3633268.992</v>
       </c>
       <c r="AJ59" t="n">
-        <v>3678493.696</v>
+        <v>3678493.952</v>
       </c>
       <c r="AK59" t="n">
         <v>3510796.032</v>
@@ -7371,7 +7371,7 @@
         <v>-2399550.976</v>
       </c>
       <c r="AF60" t="n">
-        <v>-1949686.784</v>
+        <v>-1949687.04</v>
       </c>
       <c r="AG60" t="n">
         <v>-2248091.904</v>
@@ -7383,7 +7383,7 @@
         <v>-2319994.112</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-2333126.656</v>
+        <v>-2333126.144</v>
       </c>
       <c r="AK60" t="n">
         <v>-2335650.048</v>
@@ -7458,7 +7458,7 @@
         <v>98290</v>
       </c>
       <c r="X61" t="n">
-        <v>1001161.984</v>
+        <v>1001162.048</v>
       </c>
       <c r="Y61" t="n">
         <v>397884.992</v>
@@ -7470,7 +7470,7 @@
         <v>915870.0159999999</v>
       </c>
       <c r="AB61" t="n">
-        <v>833234.176</v>
+        <v>833234.112</v>
       </c>
       <c r="AC61" t="n">
         <v>776003.968</v>
@@ -7482,7 +7482,7 @@
         <v>1363863.04</v>
       </c>
       <c r="AF61" t="n">
-        <v>984951.04</v>
+        <v>984950.912</v>
       </c>
       <c r="AG61" t="n">
         <v>1038777.984</v>
@@ -7494,7 +7494,7 @@
         <v>1313275.008</v>
       </c>
       <c r="AJ61" t="n">
-        <v>1345368.064</v>
+        <v>1345367.936</v>
       </c>
       <c r="AK61" t="n">
         <v>1175145.984</v>
@@ -7581,7 +7581,7 @@
         <v>-66735</v>
       </c>
       <c r="AB62" t="n">
-        <v>-73810.992</v>
+        <v>-73811</v>
       </c>
       <c r="AC62" t="n">
         <v>-67347</v>
@@ -7704,7 +7704,7 @@
         <v>-121929</v>
       </c>
       <c r="AF63" t="n">
-        <v>-140337.984</v>
+        <v>-140338</v>
       </c>
       <c r="AG63" t="n">
         <v>-113696</v>
@@ -7729,109 +7729,41 @@
         </is>
       </c>
       <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
+      <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" t="n">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>0</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0</v>
-      </c>
-      <c r="S64" t="n">
-        <v>0</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0</v>
-      </c>
-      <c r="U64" t="n">
-        <v>0</v>
-      </c>
-      <c r="V64" t="n">
-        <v>0</v>
-      </c>
-      <c r="W64" t="n">
-        <v>0</v>
-      </c>
-      <c r="X64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ64" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK64" t="n">
-        <v>0</v>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -8013,7 +7945,7 @@
         <v>-98386</v>
       </c>
       <c r="X66" t="n">
-        <v>-66438.016</v>
+        <v>-66438.008</v>
       </c>
       <c r="Y66" t="n">
         <v>-114083</v>
@@ -8037,7 +7969,7 @@
         <v>-172874</v>
       </c>
       <c r="AF66" t="n">
-        <v>-202331.968</v>
+        <v>-202331.984</v>
       </c>
       <c r="AG66" t="n">
         <v>-157152.992</v>
@@ -8049,7 +7981,7 @@
         <v>-161762</v>
       </c>
       <c r="AJ66" t="n">
-        <v>-138730.016</v>
+        <v>-138730.032</v>
       </c>
       <c r="AK66" t="n">
         <v>-144958</v>
@@ -8124,7 +8056,7 @@
         <v>229340</v>
       </c>
       <c r="X67" t="n">
-        <v>-417338.016</v>
+        <v>-417337.984</v>
       </c>
       <c r="Y67" t="n">
         <v>53685</v>
@@ -8148,7 +8080,7 @@
         <v>-50476</v>
       </c>
       <c r="AF67" t="n">
-        <v>29634.016</v>
+        <v>29634</v>
       </c>
       <c r="AG67" t="n">
         <v>-108089</v>
@@ -8322,7 +8254,7 @@
         <v>87789</v>
       </c>
       <c r="P69" t="n">
-        <v>14953.984</v>
+        <v>14953.992</v>
       </c>
       <c r="Q69" t="n">
         <v>20224</v>
@@ -8532,7 +8464,7 @@
         <v>2914</v>
       </c>
       <c r="L71" t="n">
-        <v>2854.016</v>
+        <v>2854</v>
       </c>
       <c r="M71" t="n">
         <v>-2813</v>
@@ -8643,7 +8575,7 @@
         <v>1424</v>
       </c>
       <c r="L72" t="n">
-        <v>133200.032</v>
+        <v>133200.024</v>
       </c>
       <c r="M72" t="n">
         <v>936</v>
@@ -8679,7 +8611,7 @@
         <v>1185878.016</v>
       </c>
       <c r="X72" t="n">
-        <v>-1378765.952</v>
+        <v>-1378766.08</v>
       </c>
       <c r="Y72" t="n">
         <v>520</v>
@@ -8715,7 +8647,7 @@
         <v>952</v>
       </c>
       <c r="AJ72" t="n">
-        <v>19090.976</v>
+        <v>19090.984</v>
       </c>
       <c r="AK72" t="n">
         <v>831</v>
@@ -8877,7 +8809,7 @@
         <v>113333</v>
       </c>
       <c r="P74" t="n">
-        <v>64758</v>
+        <v>64757.992</v>
       </c>
       <c r="Q74" t="n">
         <v>111180</v>
@@ -8901,7 +8833,7 @@
         <v>236592</v>
       </c>
       <c r="X74" t="n">
-        <v>164211.008</v>
+        <v>164211.024</v>
       </c>
       <c r="Y74" t="n">
         <v>244059.008</v>
@@ -8913,7 +8845,7 @@
         <v>595419.008</v>
       </c>
       <c r="AB74" t="n">
-        <v>474534.016</v>
+        <v>474533.952</v>
       </c>
       <c r="AC74" t="n">
         <v>1055561.984</v>
@@ -8925,7 +8857,7 @@
         <v>860481.024</v>
       </c>
       <c r="AF74" t="n">
-        <v>406356.992</v>
+        <v>406356.928</v>
       </c>
       <c r="AG74" t="n">
         <v>656641.024</v>
@@ -8937,7 +8869,7 @@
         <v>888454.976</v>
       </c>
       <c r="AJ74" t="n">
-        <v>965979.904</v>
+        <v>965980.032</v>
       </c>
       <c r="AK74" t="n">
         <v>831808</v>
@@ -9024,7 +8956,7 @@
         <v>-188670</v>
       </c>
       <c r="AB75" t="n">
-        <v>-68716</v>
+        <v>-68715.992</v>
       </c>
       <c r="AC75" t="n">
         <v>-161879.008</v>
@@ -9036,7 +8968,7 @@
         <v>-99326</v>
       </c>
       <c r="AF75" t="n">
-        <v>54785.024</v>
+        <v>54785.016</v>
       </c>
       <c r="AG75" t="n">
         <v>-192492.992</v>
@@ -9048,7 +8980,7 @@
         <v>-234856.992</v>
       </c>
       <c r="AJ75" t="n">
-        <v>22729.024</v>
+        <v>22728.992</v>
       </c>
       <c r="AK75" t="n">
         <v>-159508.992</v>
@@ -9394,70 +9326,28 @@
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
-        <v>0</v>
-      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" t="n">
-        <v>0</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>0</v>
-      </c>
-      <c r="U79" t="n">
-        <v>0</v>
-      </c>
-      <c r="V79" t="n">
-        <v>0</v>
-      </c>
-      <c r="W79" t="n">
-        <v>0</v>
-      </c>
-      <c r="X79" t="n">
-        <v>0</v>
-      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
       <c r="Y79" t="n">
         <v>-22500</v>
       </c>
@@ -9468,7 +9358,7 @@
         <v>-92284</v>
       </c>
       <c r="AB79" t="n">
-        <v>-75982.016</v>
+        <v>-75982.008</v>
       </c>
       <c r="AC79" t="n">
         <v>-74686</v>
@@ -9531,7 +9421,7 @@
         <v>57946</v>
       </c>
       <c r="L80" t="n">
-        <v>61321.984</v>
+        <v>61321.968</v>
       </c>
       <c r="M80" t="n">
         <v>41558</v>
@@ -9555,7 +9445,7 @@
         <v>52560</v>
       </c>
       <c r="T80" t="n">
-        <v>118154.976</v>
+        <v>118154.984</v>
       </c>
       <c r="U80" t="n">
         <v>158631.008</v>
@@ -9591,7 +9481,7 @@
         <v>703494.0159999999</v>
       </c>
       <c r="AF80" t="n">
-        <v>397159.936</v>
+        <v>397159.968</v>
       </c>
       <c r="AG80" t="n">
         <v>320516.992</v>
@@ -9603,7 +9493,7 @@
         <v>618966.976</v>
       </c>
       <c r="AJ80" t="n">
-        <v>820112</v>
+        <v>820111.936</v>
       </c>
       <c r="AK80" t="n">
         <v>560150.0159999999</v>
